--- a/natmiOut/OldD7/LR-pairs_lrc2p/Thbs1-Sdc4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Thbs1-Sdc4.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H2">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I2">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J2">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.18686435064815</v>
+        <v>3.438907666666667</v>
       </c>
       <c r="N2">
-        <v>2.18686435064815</v>
+        <v>10.316723</v>
       </c>
       <c r="O2">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="P2">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="Q2">
-        <v>29.43646114451612</v>
+        <v>64.73741160634378</v>
       </c>
       <c r="R2">
-        <v>29.43646114451612</v>
+        <v>582.636704457094</v>
       </c>
       <c r="S2">
-        <v>0.002261943587826116</v>
+        <v>0.00401189250251008</v>
       </c>
       <c r="T2">
-        <v>0.002261943587826116</v>
+        <v>0.004011892502510079</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H3">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I3">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J3">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.3350883614071</v>
+        <v>10.383857</v>
       </c>
       <c r="N3">
-        <v>10.3350883614071</v>
+        <v>31.151571</v>
       </c>
       <c r="O3">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="P3">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="Q3">
-        <v>139.1162770958028</v>
+        <v>195.4760318767154</v>
       </c>
       <c r="R3">
-        <v>139.1162770958028</v>
+        <v>1759.284286890438</v>
       </c>
       <c r="S3">
-        <v>0.01068991171847145</v>
+        <v>0.012113997258268</v>
       </c>
       <c r="T3">
-        <v>0.01068991171847145</v>
+        <v>0.012113997258268</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H4">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I4">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J4">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.1076762226289</v>
+        <v>25.34077833333333</v>
       </c>
       <c r="N4">
-        <v>23.1076762226289</v>
+        <v>76.022335</v>
       </c>
       <c r="O4">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="P4">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="Q4">
-        <v>311.0427096522344</v>
+        <v>477.0399662926255</v>
       </c>
       <c r="R4">
-        <v>311.0427096522344</v>
+        <v>4293.35969663363</v>
       </c>
       <c r="S4">
-        <v>0.02390100695813437</v>
+        <v>0.02956301490403587</v>
       </c>
       <c r="T4">
-        <v>0.02390100695813437</v>
+        <v>0.02956301490403586</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.4605793614001</v>
+        <v>18.82499266666667</v>
       </c>
       <c r="H5">
-        <v>13.4605793614001</v>
+        <v>56.474978</v>
       </c>
       <c r="I5">
-        <v>0.05518228957726812</v>
+        <v>0.06886869772378311</v>
       </c>
       <c r="J5">
-        <v>0.05518228957726812</v>
+        <v>0.0688686977237831</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.7210304332839</v>
+        <v>19.86921833333334</v>
       </c>
       <c r="N5">
-        <v>17.7210304332839</v>
+        <v>59.60765500000001</v>
       </c>
       <c r="O5">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="P5">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="Q5">
-        <v>238.5353365130044</v>
+        <v>374.037889417399</v>
       </c>
       <c r="R5">
-        <v>238.5353365130044</v>
+        <v>3366.34100475659</v>
       </c>
       <c r="S5">
-        <v>0.01832942731283619</v>
+        <v>0.02317979305896916</v>
       </c>
       <c r="T5">
-        <v>0.01832942731283619</v>
+        <v>0.02317979305896916</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H6">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I6">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J6">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.18686435064815</v>
+        <v>3.438907666666667</v>
       </c>
       <c r="N6">
-        <v>2.18686435064815</v>
+        <v>10.316723</v>
       </c>
       <c r="O6">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="P6">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="Q6">
-        <v>264.165897568127</v>
+        <v>418.9308006052746</v>
       </c>
       <c r="R6">
-        <v>264.165897568127</v>
+        <v>3770.377205447471</v>
       </c>
       <c r="S6">
-        <v>0.02029891960154566</v>
+        <v>0.02596188658636685</v>
       </c>
       <c r="T6">
-        <v>0.02029891960154566</v>
+        <v>0.02596188658636685</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H7">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I7">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J7">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.3350883614071</v>
+        <v>10.383857</v>
       </c>
       <c r="N7">
-        <v>10.3350883614071</v>
+        <v>31.151571</v>
       </c>
       <c r="O7">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="P7">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="Q7">
-        <v>1248.444098797363</v>
+        <v>1264.97072560173</v>
       </c>
       <c r="R7">
-        <v>1248.444098797363</v>
+        <v>11384.73653041557</v>
       </c>
       <c r="S7">
-        <v>0.09593239181062806</v>
+        <v>0.0783924850254441</v>
       </c>
       <c r="T7">
-        <v>0.09593239181062806</v>
+        <v>0.07839248502544409</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H8">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I8">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J8">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.1076762226289</v>
+        <v>25.34077833333333</v>
       </c>
       <c r="N8">
-        <v>23.1076762226289</v>
+        <v>76.022335</v>
       </c>
       <c r="O8">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="P8">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="Q8">
-        <v>2791.329982701136</v>
+        <v>3087.036228987866</v>
       </c>
       <c r="R8">
-        <v>2791.329982701136</v>
+        <v>27783.3260608908</v>
       </c>
       <c r="S8">
-        <v>0.2144901496440191</v>
+        <v>0.1913091239631797</v>
       </c>
       <c r="T8">
-        <v>0.2144901496440191</v>
+        <v>0.1913091239631797</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>120.796654575229</v>
+        <v>121.8208923333333</v>
       </c>
       <c r="H9">
-        <v>120.796654575229</v>
+        <v>365.462677</v>
       </c>
       <c r="I9">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="J9">
-        <v>0.4952116691091795</v>
+        <v>0.4456653109566078</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.7210304332839</v>
+        <v>19.86921833333334</v>
       </c>
       <c r="N9">
-        <v>17.7210304332839</v>
+        <v>59.60765500000001</v>
       </c>
       <c r="O9">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="P9">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="Q9">
-        <v>2140.641191966516</v>
+        <v>2420.485907332493</v>
       </c>
       <c r="R9">
-        <v>2140.641191966516</v>
+        <v>21784.37316599244</v>
       </c>
       <c r="S9">
-        <v>0.1644902080529867</v>
+        <v>0.1500018153816171</v>
       </c>
       <c r="T9">
-        <v>0.1644902080529867</v>
+        <v>0.1500018153816171</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H10">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I10">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J10">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.18686435064815</v>
+        <v>3.438907666666667</v>
       </c>
       <c r="N10">
-        <v>2.18686435064815</v>
+        <v>10.316723</v>
       </c>
       <c r="O10">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="P10">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="Q10">
-        <v>161.4664947973891</v>
+        <v>301.5013636206517</v>
       </c>
       <c r="R10">
-        <v>161.4664947973891</v>
+        <v>2713.512272585865</v>
       </c>
       <c r="S10">
-        <v>0.01240733730738396</v>
+        <v>0.01868457558299608</v>
       </c>
       <c r="T10">
-        <v>0.01240733730738396</v>
+        <v>0.01868457558299607</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H11">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I11">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J11">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.3350883614071</v>
+        <v>10.383857</v>
       </c>
       <c r="N11">
-        <v>10.3350883614071</v>
+        <v>31.151571</v>
       </c>
       <c r="O11">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="P11">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="Q11">
-        <v>763.0882503723201</v>
+        <v>910.389969317345</v>
       </c>
       <c r="R11">
-        <v>763.0882503723201</v>
+        <v>8193.509723856105</v>
       </c>
       <c r="S11">
-        <v>0.05863689138450248</v>
+        <v>0.05641848510215586</v>
       </c>
       <c r="T11">
-        <v>0.05863689138450248</v>
+        <v>0.05641848510215586</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H12">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I12">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J12">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>23.1076762226289</v>
+        <v>25.34077833333333</v>
       </c>
       <c r="N12">
-        <v>23.1076762226289</v>
+        <v>76.022335</v>
       </c>
       <c r="O12">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="P12">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="Q12">
-        <v>1706.148569057345</v>
+        <v>2221.716883173659</v>
       </c>
       <c r="R12">
-        <v>1706.148569057345</v>
+        <v>19995.45194856292</v>
       </c>
       <c r="S12">
-        <v>0.1311031172093497</v>
+        <v>0.1376837455365767</v>
       </c>
       <c r="T12">
-        <v>0.1311031172093497</v>
+        <v>0.1376837455365767</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>73.8347098435864</v>
+        <v>87.673585</v>
       </c>
       <c r="H13">
-        <v>73.8347098435864</v>
+        <v>263.020755</v>
       </c>
       <c r="I13">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481189</v>
       </c>
       <c r="J13">
-        <v>0.3026889281694751</v>
+        <v>0.3207419907481188</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.7210304332839</v>
+        <v>19.86921833333334</v>
       </c>
       <c r="N13">
-        <v>17.7210304332839</v>
+        <v>59.60765500000001</v>
       </c>
       <c r="O13">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="P13">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="Q13">
-        <v>1308.427140170881</v>
+        <v>1742.005602431059</v>
       </c>
       <c r="R13">
-        <v>1308.427140170881</v>
+        <v>15678.05042187953</v>
       </c>
       <c r="S13">
-        <v>0.1005415822682389</v>
+        <v>0.1079551845263902</v>
       </c>
       <c r="T13">
-        <v>0.1005415822682389</v>
+        <v>0.1079551845263902</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.8373941381059</v>
+        <v>45.02666966666666</v>
       </c>
       <c r="H14">
-        <v>35.8373941381059</v>
+        <v>135.080009</v>
       </c>
       <c r="I14">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="J14">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.18686435064815</v>
+        <v>3.438907666666667</v>
       </c>
       <c r="N14">
-        <v>2.18686435064815</v>
+        <v>10.316723</v>
       </c>
       <c r="O14">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="P14">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="Q14">
-        <v>78.37151966075078</v>
+        <v>154.8425595211674</v>
       </c>
       <c r="R14">
-        <v>78.37151966075078</v>
+        <v>1393.583035690507</v>
       </c>
       <c r="S14">
-        <v>0.00602218981060665</v>
+        <v>0.009595868728733175</v>
       </c>
       <c r="T14">
-        <v>0.00602218981060665</v>
+        <v>0.009595868728733173</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.8373941381059</v>
+        <v>45.02666966666666</v>
       </c>
       <c r="H15">
-        <v>35.8373941381059</v>
+        <v>135.080009</v>
       </c>
       <c r="I15">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="J15">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.3350883614071</v>
+        <v>10.383857</v>
       </c>
       <c r="N15">
-        <v>10.3350883614071</v>
+        <v>31.151571</v>
       </c>
       <c r="O15">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="P15">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="Q15">
-        <v>370.3826350598973</v>
+        <v>467.5504990049043</v>
       </c>
       <c r="R15">
-        <v>370.3826350598973</v>
+        <v>4207.954491044139</v>
       </c>
       <c r="S15">
-        <v>0.02846077938182968</v>
+        <v>0.02897493574362821</v>
       </c>
       <c r="T15">
-        <v>0.02846077938182968</v>
+        <v>0.0289749357436282</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>35.8373941381059</v>
+        <v>45.02666966666666</v>
       </c>
       <c r="H16">
-        <v>35.8373941381059</v>
+        <v>135.080009</v>
       </c>
       <c r="I16">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="J16">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.1076762226289</v>
+        <v>25.34077833333333</v>
       </c>
       <c r="N16">
-        <v>23.1076762226289</v>
+        <v>76.022335</v>
       </c>
       <c r="O16">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="P16">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="Q16">
-        <v>828.11890040609</v>
+        <v>1141.010855111224</v>
       </c>
       <c r="R16">
-        <v>828.11890040609</v>
+        <v>10269.09769600101</v>
       </c>
       <c r="S16">
-        <v>0.06363394796456809</v>
+        <v>0.07071047144638637</v>
       </c>
       <c r="T16">
-        <v>0.06363394796456809</v>
+        <v>0.07071047144638637</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.8373941381059</v>
+        <v>45.02666966666666</v>
       </c>
       <c r="H17">
-        <v>35.8373941381059</v>
+        <v>135.080009</v>
       </c>
       <c r="I17">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="J17">
-        <v>0.1469171131440773</v>
+        <v>0.1647240005714903</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.7210304332839</v>
+        <v>19.86921833333334</v>
       </c>
       <c r="N17">
-        <v>17.7210304332839</v>
+        <v>59.60765500000001</v>
       </c>
       <c r="O17">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="P17">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="Q17">
-        <v>635.0755521709647</v>
+        <v>894.6447304298773</v>
       </c>
       <c r="R17">
-        <v>635.0755521709647</v>
+        <v>8051.802573868896</v>
       </c>
       <c r="S17">
-        <v>0.04880019598707291</v>
+        <v>0.05544272465274251</v>
       </c>
       <c r="T17">
-        <v>0.04880019598707291</v>
+        <v>0.05544272465274251</v>
       </c>
     </row>
   </sheetData>
